--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1381.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1381.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.287795751480757</v>
+        <v>1.214209914207458</v>
       </c>
       <c r="B1">
-        <v>2.536615683147994</v>
+        <v>2.431705236434937</v>
       </c>
       <c r="C1">
-        <v>3.304918530964363</v>
+        <v>7.117269992828369</v>
       </c>
       <c r="D1">
-        <v>3.274649705105026</v>
+        <v>2.256514310836792</v>
       </c>
       <c r="E1">
-        <v>1.081335189434879</v>
+        <v>1.16564416885376</v>
       </c>
     </row>
   </sheetData>
